--- a/Organized Chaos.xlsx
+++ b/Organized Chaos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aswop\Documents\Masters-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3255BB28-6FCB-4F9D-AC83-D4BFE29E3C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF6AA9-52F0-4422-A55F-7E4979CDE0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9CF9F3A7-C46E-442D-AD8B-667F4CF79F02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="167">
   <si>
     <t>species</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>related to male fertility (unknown specific function)</t>
+  </si>
+  <si>
+    <t>FAM90A1</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -629,7 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,14 +744,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -760,6 +754,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC000"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -779,11 +781,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC5BDD65-E6D6-4838-89EE-2B5D1372407D}" name="Table2" displayName="Table2" ref="A1:M84" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC5BDD65-E6D6-4838-89EE-2B5D1372407D}" name="Table2" displayName="Table2" ref="A1:M84" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A1:M84" xr:uid="{DC5BDD65-E6D6-4838-89EE-2B5D1372407D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L84">
-    <sortCondition sortBy="cellColor" ref="C2:C84" dxfId="15"/>
     <sortCondition sortBy="cellColor" ref="C2:C84" dxfId="14"/>
+    <sortCondition sortBy="cellColor" ref="C2:C84" dxfId="13"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{85E2196B-1EFF-4693-A93E-DADDC3CA46F0}" name="species" dataDxfId="12"/>
@@ -1123,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6CEC8-4B6A-4DBF-9755-77B66591F0C4}">
   <dimension ref="A1:DW84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,117 +1191,110 @@
       </c>
     </row>
     <row r="2" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
       <c r="Q2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="9"/>
       <c r="Q3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -1418,75 +1413,70 @@
       <c r="DW4"/>
     </row>
     <row r="5" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6"/>
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6"/>
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="L6"/>
+      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" t="s">
         <v>110</v>
       </c>
       <c r="R6"/>
@@ -1601,290 +1591,270 @@
       <c r="DW6"/>
     </row>
     <row r="7" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
       <c r="Q8" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>14</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>158</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>158</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14"/>
+      <c r="J14" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
@@ -2001,365 +1971,300 @@
       <c r="DW14"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
+      <c r="J15" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
+      <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>158</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" t="s">
         <v>123</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" t="s">
         <v>123</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="24" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9" t="s">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
@@ -2476,423 +2381,322 @@
       <c r="DW26"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>161</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="F28" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
+      <c r="H28" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" t="s">
         <v>160</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="F29" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
+      <c r="K29" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
+      <c r="K30" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" t="s">
         <v>148</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="E34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
+      <c r="F35" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
       <c r="N35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" t="s">
         <v>157</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36">
         <v>11</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
+      <c r="L36" t="s">
         <v>126</v>
       </c>
-      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9">
+      <c r="I37">
         <v>12</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9" t="s">
+      <c r="L37" t="s">
         <v>126</v>
       </c>
-      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
       <c r="P38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
+      <c r="F41" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" t="s">
         <v>144</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -4084,6 +3888,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D84A6911D507FF4D876FF55CFD541A1C" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d12f1ef777badd763ef6d81b839f2a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d4bc2ed-bf83-4cea-a29a-fe2441434a83" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e396b2f9394164dbece5a0fe65dacf9" ns3:_="">
     <xsd:import namespace="1d4bc2ed-bf83-4cea-a29a-fe2441434a83"/>
@@ -4209,15 +4022,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4225,6 +4029,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DB16C8B-F2D9-44DF-8981-0F2DC25A9E59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E81812-CCDC-42F4-AE15-74CFC7784955}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4238,14 +4050,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DB16C8B-F2D9-44DF-8981-0F2DC25A9E59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Organized Chaos.xlsx
+++ b/Organized Chaos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aswop\Documents\Masters-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF6AA9-52F0-4422-A55F-7E4979CDE0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293250B-D0C8-4070-A097-3C9AF12EF9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9CF9F3A7-C46E-442D-AD8B-667F4CF79F02}"/>
   </bookViews>
@@ -564,7 +564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -620,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,6 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6CEC8-4B6A-4DBF-9755-77B66591F0C4}">
   <dimension ref="A1:DW84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2242,29 +2249,29 @@
       </c>
     </row>
     <row r="26" spans="1:127" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
@@ -3888,12 +3895,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4023,15 +4027,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DB16C8B-F2D9-44DF-8981-0F2DC25A9E59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F85F24F-8ABD-40B5-AABB-8F0DE78A7BAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1d4bc2ed-bf83-4cea-a29a-fe2441434a83"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4055,17 +4070,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F85F24F-8ABD-40B5-AABB-8F0DE78A7BAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DB16C8B-F2D9-44DF-8981-0F2DC25A9E59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1d4bc2ed-bf83-4cea-a29a-fe2441434a83"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>